--- a/predictions/deaths/d1_train_short_predictions.xlsx
+++ b/predictions/deaths/d1_train_short_predictions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\predictions\deaths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\deaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -132,7 +132,45 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2636,7 +2674,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5634,7 +5671,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8245,15 +8282,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8275,16 +8312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8310,21 +8347,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I162" totalsRowShown="0">
   <autoFilter ref="A1:I162"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="date" dataDxfId="7"/>
+    <tableColumn id="1" name="date" dataDxfId="8"/>
     <tableColumn id="2" name="ln(d + 1)"/>
-    <tableColumn id="3" name="Prognoza(ln(d + 1))" dataDxfId="6">
+    <tableColumn id="3" name="Prognoza(ln(d + 1))" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$132,$A$2:$A$132,7,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Dolna granica ufności(ln(d + 1))" dataDxfId="5">
+    <tableColumn id="4" name="Dolna granica ufności(ln(d + 1))" dataDxfId="6">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Górna granica ufności(ln(d + 1))" dataDxfId="4">
+    <tableColumn id="5" name="Górna granica ufności(ln(d + 1))" dataDxfId="5">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="dane*" dataDxfId="3"/>
-    <tableColumn id="7" name="prognoza*" dataDxfId="2"/>
-    <tableColumn id="8" name="dolna granica*" dataDxfId="1"/>
-    <tableColumn id="9" name="górna granica*" dataDxfId="0"/>
+    <tableColumn id="6" name="dane*" dataDxfId="4"/>
+    <tableColumn id="7" name="prognoza*" dataDxfId="3"/>
+    <tableColumn id="8" name="dolna granica*" dataDxfId="2"/>
+    <tableColumn id="9" name="górna granica*" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A166:C196" totalsRowShown="0">
+  <autoFilter ref="A166:C196"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="data" dataDxfId="0"/>
+    <tableColumn id="2" name="wartość rzeczywista"/>
+    <tableColumn id="3" name="prognoza">
+      <calculatedColumnFormula>G133</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10197,13 +10248,13 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
@@ -11826,15 +11877,15 @@
         <v>44049</v>
       </c>
       <c r="C133" s="3">
-        <f>_xlfn.FORECAST.ETS(A133,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" ref="C133:C162" si="3">_xlfn.FORECAST.ETS(A133,$B$2:$B$132,$A$2:$A$132,7,1)</f>
         <v>2.4138139342777025</v>
       </c>
       <c r="D133" s="4">
-        <f>C133-_xlfn.FORECAST.ETS.CONFINT(A133,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" ref="D133:D162" si="4">C133-_xlfn.FORECAST.ETS.CONFINT(A133,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
         <v>1.291058975035972</v>
       </c>
       <c r="E133" s="4">
-        <f>C133+_xlfn.FORECAST.ETS.CONFINT(A133,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" ref="E133:E162" si="5">C133+_xlfn.FORECAST.ETS.CONFINT(A133,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
         <v>3.536568893519433</v>
       </c>
       <c r="G133">
@@ -11855,27 +11906,27 @@
         <v>44050</v>
       </c>
       <c r="C134" s="3">
-        <f>_xlfn.FORECAST.ETS(A134,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.1182453738028419</v>
       </c>
       <c r="D134" s="4">
-        <f>C134-_xlfn.FORECAST.ETS.CONFINT(A134,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.96038938613789737</v>
       </c>
       <c r="E134" s="4">
-        <f>C134+_xlfn.FORECAST.ETS.CONFINT(A134,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.2761013614677865</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G162" si="3">EXP(C134)-1</f>
+        <f t="shared" ref="G134:G162" si="6">EXP(C134)-1</f>
         <v>7.3165322726931965</v>
       </c>
       <c r="H134" s="7">
-        <f t="shared" ref="H134:H162" si="4">EXP(D134)-1</f>
+        <f t="shared" ref="H134:H162" si="7">EXP(D134)-1</f>
         <v>1.6127136298467177</v>
       </c>
       <c r="I134" s="7">
-        <f t="shared" ref="I134:I162" si="5">EXP(E134)-1</f>
+        <f t="shared" ref="I134:I162" si="8">EXP(E134)-1</f>
         <v>25.472365073858175</v>
       </c>
     </row>
@@ -11884,27 +11935,27 @@
         <v>44051</v>
       </c>
       <c r="C135" s="3">
-        <f>_xlfn.FORECAST.ETS(A135,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.9766271077685154</v>
       </c>
       <c r="D135" s="4">
-        <f>C135-_xlfn.FORECAST.ETS.CONFINT(A135,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.78443632182694767</v>
       </c>
       <c r="E135" s="4">
-        <f>C135+_xlfn.FORECAST.ETS.CONFINT(A135,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.168817893710083</v>
       </c>
       <c r="G135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2183551455096584</v>
       </c>
       <c r="H135" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1911714770289503</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22.779358006866456</v>
       </c>
     </row>
@@ -11913,27 +11964,27 @@
         <v>44052</v>
       </c>
       <c r="C136" s="3">
-        <f>_xlfn.FORECAST.ETS(A136,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.9133189171676708</v>
       </c>
       <c r="D136" s="4">
-        <f>C136-_xlfn.FORECAST.ETS.CONFINT(A136,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.6874941477179255</v>
       </c>
       <c r="E136" s="4">
-        <f>C136+_xlfn.FORECAST.ETS.CONFINT(A136,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.1391436866174161</v>
       </c>
       <c r="G136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.7755389754104858</v>
       </c>
       <c r="H136" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98872583096370392</v>
       </c>
       <c r="I136" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22.084091176640644</v>
       </c>
     </row>
@@ -11942,27 +11993,27 @@
         <v>44053</v>
       </c>
       <c r="C137" s="3">
-        <f>_xlfn.FORECAST.ETS(A137,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.3540972271442915</v>
       </c>
       <c r="D137" s="4">
-        <f>C137-_xlfn.FORECAST.ETS.CONFINT(A137,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>9.5282111542875025E-2</v>
       </c>
       <c r="E137" s="4">
-        <f>C137+_xlfn.FORECAST.ETS.CONFINT(A137,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>2.6129123427457079</v>
       </c>
       <c r="G137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8732627013759937</v>
       </c>
       <c r="H137" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.9969125345706233E-2</v>
       </c>
       <c r="I137" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.638713676763858</v>
       </c>
     </row>
@@ -11971,27 +12022,27 @@
         <v>44054</v>
       </c>
       <c r="C138" s="3">
-        <f>_xlfn.FORECAST.ETS(A138,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.2213711209858604</v>
       </c>
       <c r="D138" s="4">
-        <f>C138-_xlfn.FORECAST.ETS.CONFINT(A138,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.93015898471559288</v>
       </c>
       <c r="E138" s="4">
-        <f>C138+_xlfn.FORECAST.ETS.CONFINT(A138,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.5125832572561277</v>
       </c>
       <c r="G138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.2199638891787554</v>
       </c>
       <c r="H138" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5349121578716276</v>
       </c>
       <c r="I138" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32.534784964357399</v>
       </c>
     </row>
@@ -12000,27 +12051,27 @@
         <v>44055</v>
       </c>
       <c r="C139" s="3">
-        <f>_xlfn.FORECAST.ETS(A139,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.5531687978391084</v>
       </c>
       <c r="D139" s="4">
-        <f>C139-_xlfn.FORECAST.ETS.CONFINT(A139,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>1.230108427595566</v>
       </c>
       <c r="E139" s="4">
-        <f>C139+_xlfn.FORECAST.ETS.CONFINT(A139,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.8762291680826508</v>
       </c>
       <c r="G139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.847751273282261</v>
       </c>
       <c r="H139" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4216005120938169</v>
       </c>
       <c r="I139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>47.241959339407558</v>
       </c>
     </row>
@@ -12029,27 +12080,27 @@
         <v>44056</v>
       </c>
       <c r="C140" s="3">
-        <f>_xlfn.FORECAST.ETS(A140,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.3973562949710483</v>
       </c>
       <c r="D140" s="4">
-        <f>C140-_xlfn.FORECAST.ETS.CONFINT(A140,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.95659305121474891</v>
       </c>
       <c r="E140" s="4">
-        <f>C140+_xlfn.FORECAST.ETS.CONFINT(A140,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.8381195387273479</v>
       </c>
       <c r="G140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.9940728413464868</v>
       </c>
       <c r="H140" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6028136974690028</v>
       </c>
       <c r="I140" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45.438067295545224</v>
       </c>
     </row>
@@ -12058,27 +12109,27 @@
         <v>44057</v>
       </c>
       <c r="C141" s="3">
-        <f>_xlfn.FORECAST.ETS(A141,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.1017877344961877</v>
       </c>
       <c r="D141" s="4">
-        <f>C141-_xlfn.FORECAST.ETS.CONFINT(A141,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.63197155407314609</v>
       </c>
       <c r="E141" s="4">
-        <f>C141+_xlfn.FORECAST.ETS.CONFINT(A141,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.5716039149192294</v>
       </c>
       <c r="G141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1807819135195015</v>
       </c>
       <c r="H141" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88131604160909438</v>
       </c>
       <c r="I141" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34.573604453681533</v>
       </c>
     </row>
@@ -12087,27 +12138,27 @@
         <v>44058</v>
       </c>
       <c r="C142" s="3">
-        <f>_xlfn.FORECAST.ETS(A142,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.9601694684618611</v>
       </c>
       <c r="D142" s="4">
-        <f>C142-_xlfn.FORECAST.ETS.CONFINT(A142,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.46164528639067814</v>
       </c>
       <c r="E142" s="4">
-        <f>C142+_xlfn.FORECAST.ETS.CONFINT(A142,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.4586936505330441</v>
       </c>
       <c r="G142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1005302791451461</v>
       </c>
       <c r="H142" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.58668238555839047</v>
       </c>
       <c r="I142" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30.77543956115322</v>
       </c>
     </row>
@@ -12116,27 +12167,27 @@
         <v>44059</v>
       </c>
       <c r="C143" s="3">
-        <f>_xlfn.FORECAST.ETS(A143,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.8968612778610165</v>
       </c>
       <c r="D143" s="4">
-        <f>C143-_xlfn.FORECAST.ETS.CONFINT(A143,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.36995374766386813</v>
       </c>
       <c r="E143" s="4">
-        <f>C143+_xlfn.FORECAST.ETS.CONFINT(A143,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.4237688080581652</v>
       </c>
       <c r="G143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6649421762460799</v>
       </c>
       <c r="H143" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.44766765510382722</v>
       </c>
       <c r="I143" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.684842654385282</v>
       </c>
     </row>
@@ -12145,27 +12196,27 @@
         <v>44060</v>
       </c>
       <c r="C144" s="3">
-        <f>_xlfn.FORECAST.ETS(A144,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.3376395878376373</v>
       </c>
       <c r="D144" s="4">
-        <f>C144-_xlfn.FORECAST.ETS.CONFINT(A144,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>-0.21734522557782543</v>
       </c>
       <c r="E144" s="4">
-        <f>C144+_xlfn.FORECAST.ETS.CONFINT(A144,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>2.8926244012530997</v>
       </c>
       <c r="G144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8100396192492894</v>
       </c>
       <c r="H144" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.19534786514822167</v>
       </c>
       <c r="I144" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.040593284355449</v>
       </c>
     </row>
@@ -12174,27 +12225,27 @@
         <v>44061</v>
       </c>
       <c r="C145" s="3">
-        <f>_xlfn.FORECAST.ETS(A145,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.2049134816792062</v>
       </c>
       <c r="D145" s="4">
-        <f>C145-_xlfn.FORECAST.ETS.CONFINT(A145,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.62214036529473882</v>
       </c>
       <c r="E145" s="4">
-        <f>C145+_xlfn.FORECAST.ETS.CONFINT(A145,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.7876865980636736</v>
       </c>
       <c r="G145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.0694668588679246</v>
       </c>
       <c r="H145" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.86291108797879934</v>
       </c>
       <c r="I145" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>43.15413576895287</v>
       </c>
     </row>
@@ -12203,27 +12254,27 @@
         <v>44062</v>
       </c>
       <c r="C146" s="3">
-        <f>_xlfn.FORECAST.ETS(A146,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.5367111585324542</v>
       </c>
       <c r="D146" s="4">
-        <f>C146-_xlfn.FORECAST.ETS.CONFINT(A146,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.9264229759638225</v>
       </c>
       <c r="E146" s="4">
-        <f>C146+_xlfn.FORECAST.ETS.CONFINT(A146,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.1469993411010861</v>
       </c>
       <c r="G146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.638038042727146</v>
       </c>
       <c r="H146" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5254593727038817</v>
       </c>
       <c r="I146" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>62.243941793612969</v>
       </c>
     </row>
@@ -12232,27 +12283,27 @@
         <v>44063</v>
       </c>
       <c r="C147" s="3">
-        <f>_xlfn.FORECAST.ETS(A147,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.3808986556643941</v>
       </c>
       <c r="D147" s="4">
-        <f>C147-_xlfn.FORECAST.ETS.CONFINT(A147,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.66994423890445209</v>
       </c>
       <c r="E147" s="4">
-        <f>C147+_xlfn.FORECAST.ETS.CONFINT(A147,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.0918530724243363</v>
       </c>
       <c r="G147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.8146171153229229</v>
       </c>
       <c r="H147" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.95412835326007861</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>58.85069668321303</v>
       </c>
     </row>
@@ -12261,27 +12312,27 @@
         <v>44064</v>
       </c>
       <c r="C148" s="3">
-        <f>_xlfn.FORECAST.ETS(A148,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.0853300951895335</v>
       </c>
       <c r="D148" s="4">
-        <f>C148-_xlfn.FORECAST.ETS.CONFINT(A148,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.34850583159187343</v>
       </c>
       <c r="E148" s="4">
-        <f>C148+_xlfn.FORECAST.ETS.CONFINT(A148,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.8221543587871936</v>
       </c>
       <c r="G148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0472474009765342</v>
       </c>
       <c r="H148" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41694880596648187</v>
       </c>
       <c r="I148" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44.702562054352327</v>
       </c>
     </row>
@@ -12290,27 +12341,27 @@
         <v>44065</v>
       </c>
       <c r="C149" s="3">
-        <f>_xlfn.FORECAST.ETS(A149,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.9437118291552069</v>
       </c>
       <c r="D149" s="4">
-        <f>C149-_xlfn.FORECAST.ETS.CONFINT(A149,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.18120681711721098</v>
       </c>
       <c r="E149" s="4">
-        <f>C149+_xlfn.FORECAST.ETS.CONFINT(A149,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.7062168411932026</v>
       </c>
       <c r="G149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9846286624481779</v>
       </c>
       <c r="H149" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19866305769766801</v>
       </c>
       <c r="I149" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>39.699542076483503</v>
       </c>
     </row>
@@ -12319,27 +12370,27 @@
         <v>44066</v>
       </c>
       <c r="C150" s="3">
-        <f>_xlfn.FORECAST.ETS(A150,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.8804036385543623</v>
       </c>
       <c r="D150" s="4">
-        <f>C150-_xlfn.FORECAST.ETS.CONFINT(A150,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>9.2398123490089468E-2</v>
       </c>
       <c r="E150" s="4">
-        <f>C150+_xlfn.FORECAST.ETS.CONFINT(A150,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.6684091536186352</v>
       </c>
       <c r="G150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5561506433534502</v>
       </c>
       <c r="H150" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.6801397569907355E-2</v>
       </c>
       <c r="I150" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38.189511750785513</v>
       </c>
     </row>
@@ -12348,27 +12399,27 @@
         <v>44067</v>
       </c>
       <c r="C151" s="3">
-        <f>_xlfn.FORECAST.ETS(A151,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.3211819485309835</v>
       </c>
       <c r="D151" s="4">
-        <f>C151-_xlfn.FORECAST.ETS.CONFINT(A151,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>-0.49215212358660398</v>
       </c>
       <c r="E151" s="4">
-        <f>C151+_xlfn.FORECAST.ETS.CONFINT(A151,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.1345160206485709</v>
       </c>
       <c r="G151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7478485244732456</v>
       </c>
       <c r="H151" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.38869063581428853</v>
       </c>
       <c r="I151" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21.97751250891864</v>
       </c>
     </row>
@@ -12377,27 +12428,27 @@
         <v>44068</v>
       </c>
       <c r="C152" s="3">
-        <f>_xlfn.FORECAST.ETS(A152,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.188455842372552</v>
       </c>
       <c r="D152" s="4">
-        <f>C152-_xlfn.FORECAST.ETS.CONFINT(A152,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.34995736692489987</v>
       </c>
       <c r="E152" s="4">
-        <f>C152+_xlfn.FORECAST.ETS.CONFINT(A152,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.0269543178202039</v>
       </c>
       <c r="G152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.9214263843966393</v>
       </c>
       <c r="H152" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41900705066950139</v>
       </c>
       <c r="I152" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>55.089819070776471</v>
       </c>
     </row>
@@ -12406,27 +12457,27 @@
         <v>44069</v>
       </c>
       <c r="C153" s="3">
-        <f>_xlfn.FORECAST.ETS(A153,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.5202535192258</v>
       </c>
       <c r="D153" s="4">
-        <f>C153-_xlfn.FORECAST.ETS.CONFINT(A153,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.65674746760696556</v>
       </c>
       <c r="E153" s="4">
-        <f>C153+_xlfn.FORECAST.ETS.CONFINT(A153,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.3837595708446342</v>
       </c>
       <c r="G153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.431747951220597</v>
       </c>
       <c r="H153" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.92850958262617933</v>
       </c>
       <c r="I153" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>79.138755085789484</v>
       </c>
     </row>
@@ -12435,27 +12486,27 @@
         <v>44070</v>
       </c>
       <c r="C154" s="3">
-        <f>_xlfn.FORECAST.ETS(A154,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.3644410163577398</v>
       </c>
       <c r="D154" s="4">
-        <f>C154-_xlfn.FORECAST.ETS.CONFINT(A154,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.41094611477682963</v>
       </c>
       <c r="E154" s="4">
-        <f>C154+_xlfn.FORECAST.ETS.CONFINT(A154,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.3179359179386498</v>
       </c>
       <c r="G154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.6380906365462504</v>
       </c>
       <c r="H154" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.5082440822993668</v>
       </c>
       <c r="I154" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>74.033592851127409</v>
       </c>
     </row>
@@ -12464,27 +12515,27 @@
         <v>44071</v>
       </c>
       <c r="C155" s="3">
-        <f>_xlfn.FORECAST.ETS(A155,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.0688724558828793</v>
       </c>
       <c r="D155" s="4">
-        <f>C155-_xlfn.FORECAST.ETS.CONFINT(A155,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>9.1477199409541576E-2</v>
       </c>
       <c r="E155" s="4">
-        <f>C155+_xlfn.FORECAST.ETS.CONFINT(A155,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.046267712356217</v>
       </c>
       <c r="G155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.9158925659055468</v>
       </c>
       <c r="H155" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.5791791707835694E-2</v>
       </c>
       <c r="I155" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>56.183632501297026</v>
       </c>
     </row>
@@ -12493,27 +12544,27 @@
         <v>44072</v>
       </c>
       <c r="C156" s="3">
-        <f>_xlfn.FORECAST.ETS(A156,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.9272541898485527</v>
       </c>
       <c r="D156" s="4">
-        <f>C156-_xlfn.FORECAST.ETS.CONFINT(A156,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>-7.3928262276186762E-2</v>
       </c>
       <c r="E156" s="4">
-        <f>C156+_xlfn.FORECAST.ETS.CONFINT(A156,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.9284366419732919</v>
       </c>
       <c r="G156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.8706189023062647</v>
       </c>
       <c r="H156" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.1261682975557683E-2</v>
       </c>
       <c r="I156" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>49.827454015215125</v>
       </c>
     </row>
@@ -12522,27 +12573,27 @@
         <v>44073</v>
       </c>
       <c r="C157" s="3">
-        <f>_xlfn.FORECAST.ETS(A157,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.8639459992477081</v>
       </c>
       <c r="D157" s="4">
-        <f>C157-_xlfn.FORECAST.ETS.CONFINT(A157,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>-0.16091509988136354</v>
       </c>
       <c r="E157" s="4">
-        <f>C157+_xlfn.FORECAST.ETS.CONFINT(A157,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.8888070983767795</v>
       </c>
       <c r="G157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4491349094574426</v>
       </c>
       <c r="H157" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.14863565102686127</v>
       </c>
       <c r="I157" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>47.852575434415911</v>
       </c>
     </row>
@@ -12551,27 +12602,27 @@
         <v>44074</v>
       </c>
       <c r="C158" s="3">
-        <f>_xlfn.FORECAST.ETS(A158,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>1.3047243092243292</v>
       </c>
       <c r="D158" s="4">
-        <f>C158-_xlfn.FORECAST.ETS.CONFINT(A158,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>-0.7437112679182063</v>
       </c>
       <c r="E158" s="4">
-        <f>C158+_xlfn.FORECAST.ETS.CONFINT(A158,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>3.353159886366865</v>
       </c>
       <c r="G158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.6866725719676121</v>
       </c>
       <c r="H158" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.5246535003414482</v>
       </c>
       <c r="I158" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>27.592941491441081</v>
       </c>
     </row>
@@ -12580,27 +12631,27 @@
         <v>44075</v>
       </c>
       <c r="C159" s="3">
-        <f>_xlfn.FORECAST.ETS(A159,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.1719982030658977</v>
       </c>
       <c r="D159" s="4">
-        <f>C159-_xlfn.FORECAST.ETS.CONFINT(A159,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.10008815273537586</v>
       </c>
       <c r="E159" s="4">
-        <f>C159+_xlfn.FORECAST.ETS.CONFINT(A159,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.2439082533964196</v>
       </c>
       <c r="G159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7758023675212335</v>
       </c>
       <c r="H159" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10526834620934888</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>68.679646085878161</v>
       </c>
     </row>
@@ -12609,27 +12660,27 @@
         <v>44076</v>
       </c>
       <c r="C160" s="3">
-        <f>_xlfn.FORECAST.ETS(A160,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.5037958799191458</v>
       </c>
       <c r="D160" s="4">
-        <f>C160-_xlfn.FORECAST.ETS.CONFINT(A160,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.40850739839789085</v>
       </c>
       <c r="E160" s="4">
-        <f>C160+_xlfn.FORECAST.ETS.CONFINT(A160,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.5990843614404007</v>
       </c>
       <c r="G160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.228825123027383</v>
       </c>
       <c r="H160" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.50457038412710475</v>
       </c>
       <c r="I160" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>98.393265657256421</v>
       </c>
     </row>
@@ -12638,27 +12689,27 @@
         <v>44077</v>
       </c>
       <c r="C161" s="3">
-        <f>_xlfn.FORECAST.ETS(A161,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.3479833770510856</v>
       </c>
       <c r="D161" s="4">
-        <f>C161-_xlfn.FORECAST.ETS.CONFINT(A161,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>0.17014145800298408</v>
       </c>
       <c r="E161" s="4">
-        <f>C161+_xlfn.FORECAST.ETS.CONFINT(A161,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.5258252960991872</v>
       </c>
       <c r="G161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.464445591053531</v>
       </c>
       <c r="H161" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.18547253403731223</v>
       </c>
       <c r="I161" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>91.372128736871332</v>
       </c>
     </row>
@@ -12667,27 +12718,27 @@
         <v>44078</v>
       </c>
       <c r="C162" s="3">
-        <f>_xlfn.FORECAST.ETS(A162,$B$2:$B$132,$A$2:$A$132,7,1)</f>
+        <f t="shared" si="3"/>
         <v>2.052414816576225</v>
       </c>
       <c r="D162" s="4">
-        <f>C162-_xlfn.FORECAST.ETS.CONFINT(A162,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="4"/>
         <v>-0.14799987032387518</v>
       </c>
       <c r="E162" s="4">
-        <f>C162+_xlfn.FORECAST.ETS.CONFINT(A162,$B$2:$B$132,$A$2:$A$132,0.95,7,1)</f>
+        <f t="shared" si="5"/>
         <v>4.2528295034763257</v>
       </c>
       <c r="G162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.7866818295352447</v>
       </c>
       <c r="H162" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.13756877322122241</v>
       </c>
       <c r="I162" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>69.304056754623062</v>
       </c>
     </row>
@@ -12722,7 +12773,7 @@
         <v>13</v>
       </c>
       <c r="C168">
-        <f t="shared" ref="C168:C196" si="6">G134</f>
+        <f t="shared" ref="C168:C196" si="9">G134</f>
         <v>7.3165322726931965</v>
       </c>
     </row>
@@ -12734,7 +12785,7 @@
         <v>13</v>
       </c>
       <c r="C169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2183551455096584</v>
       </c>
     </row>
@@ -12746,7 +12797,7 @@
         <v>7</v>
       </c>
       <c r="C170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.7755389754104858</v>
       </c>
     </row>
@@ -12758,7 +12809,7 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8732627013759937</v>
       </c>
     </row>
@@ -12770,7 +12821,7 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.2199638891787554</v>
       </c>
     </row>
@@ -12782,7 +12833,7 @@
         <v>9</v>
       </c>
       <c r="C173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.847751273282261</v>
       </c>
     </row>
@@ -12794,7 +12845,7 @@
         <v>14</v>
       </c>
       <c r="C174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.9940728413464868</v>
       </c>
     </row>
@@ -12806,7 +12857,7 @@
         <v>14</v>
       </c>
       <c r="C175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.1807819135195015</v>
       </c>
     </row>
@@ -12818,7 +12869,7 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.1005302791451461</v>
       </c>
     </row>
@@ -12830,7 +12881,7 @@
         <v>8</v>
       </c>
       <c r="C177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.6649421762460799</v>
       </c>
     </row>
@@ -12842,7 +12893,7 @@
         <v>8</v>
       </c>
       <c r="C178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8100396192492894</v>
       </c>
     </row>
@@ -12854,7 +12905,7 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.0694668588679246</v>
       </c>
     </row>
@@ -12866,7 +12917,7 @@
         <v>17</v>
       </c>
       <c r="C180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.638038042727146</v>
       </c>
     </row>
@@ -12878,7 +12929,7 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.8146171153229229</v>
       </c>
     </row>
@@ -12890,7 +12941,7 @@
         <v>13</v>
       </c>
       <c r="C182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.0472474009765342</v>
       </c>
     </row>
@@ -12902,7 +12953,7 @@
         <v>13</v>
       </c>
       <c r="C183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.9846286624481779</v>
       </c>
     </row>
@@ -12914,7 +12965,7 @@
         <v>4</v>
       </c>
       <c r="C184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.5561506433534502</v>
       </c>
     </row>
@@ -12926,7 +12977,7 @@
         <v>5</v>
       </c>
       <c r="C185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.7478485244732456</v>
       </c>
     </row>
@@ -12938,7 +12989,7 @@
         <v>17</v>
       </c>
       <c r="C186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.9214263843966393</v>
       </c>
     </row>
@@ -12950,7 +13001,7 @@
         <v>17</v>
       </c>
       <c r="C187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.431747951220597</v>
       </c>
     </row>
@@ -12962,7 +13013,7 @@
         <v>16</v>
       </c>
       <c r="C188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6380906365462504</v>
       </c>
     </row>
@@ -12974,7 +13025,7 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.9158925659055468</v>
       </c>
     </row>
@@ -12986,7 +13037,7 @@
         <v>14</v>
       </c>
       <c r="C190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.8706189023062647</v>
       </c>
     </row>
@@ -12998,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.4491349094574426</v>
       </c>
     </row>
@@ -13010,7 +13061,7 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.6866725719676121</v>
       </c>
     </row>
@@ -13022,7 +13073,7 @@
         <v>19</v>
       </c>
       <c r="C193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.7758023675212335</v>
       </c>
     </row>
@@ -13034,7 +13085,7 @@
         <v>20</v>
       </c>
       <c r="C194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.228825123027383</v>
       </c>
     </row>
@@ -13046,7 +13097,7 @@
         <v>14</v>
       </c>
       <c r="C195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.464445591053531</v>
       </c>
     </row>
@@ -13058,15 +13109,16 @@
         <v>8</v>
       </c>
       <c r="C196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.7866818295352447</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>